--- a/tut05/output/0401EE15.xlsx
+++ b/tut05/output/0401EE15.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.122448979591836</v>
+        <v>6.12</v>
       </c>
       <c r="C6" t="n">
-        <v>4.977272727272728</v>
+        <v>4.98</v>
       </c>
       <c r="D6" t="n">
-        <v>5.043478260869565</v>
+        <v>5.04</v>
       </c>
       <c r="E6" t="n">
-        <v>5.173913043478261</v>
+        <v>5.17</v>
       </c>
       <c r="F6" t="n">
-        <v>5.538461538461538</v>
+        <v>5.54</v>
       </c>
       <c r="G6" t="n">
         <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>5.883720930232558</v>
+        <v>5.88</v>
       </c>
       <c r="I6" t="n">
-        <v>5.526315789473684</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.122448979591836</v>
+        <v>6.12</v>
       </c>
       <c r="C8" t="n">
-        <v>5.580645161290323</v>
+        <v>5.58</v>
       </c>
       <c r="D8" t="n">
-        <v>5.402877697841727</v>
+        <v>5.4</v>
       </c>
       <c r="E8" t="n">
-        <v>5.345945945945946</v>
+        <v>5.35</v>
       </c>
       <c r="F8" t="n">
-        <v>5.379464285714286</v>
+        <v>5.38</v>
       </c>
       <c r="G8" t="n">
-        <v>5.397727272727272</v>
+        <v>5.4</v>
       </c>
       <c r="H8" t="n">
-        <v>5.465798045602606</v>
+        <v>5.47</v>
       </c>
       <c r="I8" t="n">
-        <v>5.472463768115942</v>
+        <v>5.47</v>
       </c>
     </row>
   </sheetData>
